--- a/InputData/trans/EoFoNVFE/Effect of Feebate on New Veh Fuel Econ.xlsx
+++ b/InputData/trans/EoFoNVFE/Effect of Feebate on New Veh Fuel Econ.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\EoFoNVFE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gngna\Documents\Cenergia\EPS\Revisão\trans\EoFoNVFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B757D27-485F-4E17-ABD3-4BBB5F40F9EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="25875" windowHeight="11310"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="20475" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="EoFoNVFE" sheetId="3" r:id="rId3"/>
+    <sheet name="Data" sheetId="4" r:id="rId2"/>
+    <sheet name="Data and calculation Brazil" sheetId="2" r:id="rId3"/>
+    <sheet name="EoFoNVFE" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
   <si>
     <t>EoFoNVFE Effect of Feebate on New Veh Fuel Economy</t>
   </si>
@@ -35,9 +47,6 @@
     <t>Energy Policy, 33(6), 757-775.</t>
   </si>
   <si>
-    <t>http://cta.ornl.gov/cta/Publications/Reports/FeebateEnergyPolicy_FINAL.pdf</t>
-  </si>
-  <si>
     <t>Greene, D. L., Patterson, P. D., Singh, M., &amp; Li, J.</t>
   </si>
   <si>
@@ -68,86 +77,344 @@
     <t>hundredth gal/mile (0.01 gal/mile)</t>
   </si>
   <si>
-    <t>Page 761, Section 3, Paragrah 1 and Page 771, Section A.2, Paragraph 2</t>
-  </si>
-  <si>
     <t>New Vehicle Fuel Econ</t>
   </si>
   <si>
+    <t>See "cpi.xlsx" in the InputData folder for source information.</t>
+  </si>
+  <si>
+    <t>perc increase in fuel econ / 2012$</t>
+  </si>
+  <si>
+    <t>Currency Year</t>
+  </si>
+  <si>
+    <t>Best Practice Feebate Rate</t>
+  </si>
+  <si>
+    <t>2012$ / (hundredth gal/mile)</t>
+  </si>
+  <si>
+    <t>Feebate at Full Policy Implementation</t>
+  </si>
+  <si>
+    <t>perc increase in fuel econ at full policy implementation</t>
+  </si>
+  <si>
+    <t>Effect of Feebate on Fuel Economy</t>
+  </si>
+  <si>
+    <t>Best Practices for Feebate Program Design and Implementation</t>
+  </si>
+  <si>
+    <t>http://www.theicct.org/sites/default/files/publications/ICCT_feebates_may2010.pdf</t>
+  </si>
+  <si>
+    <t>Table 2</t>
+  </si>
+  <si>
+    <t>John German and Dan Meszler, ICCT</t>
+  </si>
+  <si>
+    <t>This rate is from Germany.</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Effect of Feebate (dimensionless)</t>
+  </si>
+  <si>
+    <t>Feebate Amount Calculation (R):</t>
+  </si>
+  <si>
+    <t>Page 771, Equation A.2</t>
+  </si>
+  <si>
+    <t>Where:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">– </t>
+  </si>
+  <si>
+    <t>In order to have only one value, we consider the average of all calculated R:</t>
+  </si>
+  <si>
+    <t>http://www.mdic.gov.br/index.php/competitividade-industrial/setor-automotivo/inovar-auto/objetivo-geral-e-especifico-3</t>
+  </si>
+  <si>
+    <t>Source: http://www.mdic.gov.br/index.php/competitividade-industrial/setor-automotivo/inovar-auto/objetivo-geral-e-especifico-3</t>
+  </si>
+  <si>
+    <t>1 km</t>
+  </si>
+  <si>
+    <t>Source: https://www.bcb.gov.br/estabilidadefinanceira/historicocotacoes (exchange  rate from 2013)</t>
+  </si>
+  <si>
+    <t>gallon</t>
+  </si>
+  <si>
+    <t>miles</t>
+  </si>
+  <si>
+    <t>1 liter</t>
+  </si>
+  <si>
+    <t>Multiply by to have 2012 dollars</t>
+  </si>
+  <si>
+    <t>Exchange rate (R$/US$)</t>
+  </si>
+  <si>
+    <t>2013$</t>
+  </si>
+  <si>
+    <t>perc increase in fuel econ / 2013$</t>
+  </si>
+  <si>
+    <t>Greene, D. L., Patterson, P. D., Singh, M., &amp; Li, J. (2005). Feebates, rebates and gas-guzzler taxes: a study of incentives for increased fuel economy. Energy Policy, 33(6), 757-775.</t>
+  </si>
+  <si>
+    <t>The table below, adapted from page 360 (MOP), shows the fees from Inovar-Auto Program, so we can calculate R:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the pivot point (the fuel economy level (in MPG) below which fees are paid and above which rebates are received) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">R </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is a constant specified in units of dollars per GPM (here, per 100 miles), which determines how large the fee or rebate for any particular fuel economy level will be.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the feebate for a vehicle getting </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> miles per gallon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">E </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Efficiency with gasoline (km/l) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">E0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(km/l)(from page 359, first paragraph)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">R </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(R$.km/L)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">R </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(hundredth gal/mile (0.01 gal/mile)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Fee (R$) </t>
+    </r>
+  </si>
+  <si>
+    <t>Page 771, Section A.2</t>
+  </si>
+  <si>
+    <t>The equation A.2 was used to calculate the Feebate amount</t>
+  </si>
+  <si>
+    <t>We adjust 2013 dollars to 2012 dollars using the following conversion factor:</t>
+  </si>
+  <si>
+    <t>Fees as a Function of Vehicle Efficiency</t>
+  </si>
+  <si>
+    <t>Page 360</t>
+  </si>
+  <si>
+    <t>Resulting Increase in Fuel Economy</t>
+  </si>
+  <si>
     <t>Note:</t>
   </si>
   <si>
-    <t>See "cpi.xlsx" in the InputData folder for source information.</t>
-  </si>
-  <si>
-    <t>We adjust 2000 dollars to 2012 dollars using the following conversion factor:</t>
-  </si>
-  <si>
-    <t>The source specifies that it uses 2000 $, for example, Page 762, Table 1A.</t>
+    <t>Since the feebate is natively expressed in unusual units (dollars per (hundredth gallon per mile)), we</t>
+  </si>
+  <si>
+    <t>cause the lever in the EPS to represent the fraction of the best practice feebate rate, to improve</t>
+  </si>
+  <si>
+    <t>model usability for users.</t>
+  </si>
+  <si>
+    <t>Brazilian Ministry of Science, Technology, Innovation and Communication (MCTIC)</t>
+  </si>
+  <si>
+    <t>Report: "Greenhouse gas mitigation options in key sectors in Brazil"</t>
+  </si>
+  <si>
+    <t>Version: "Sector modeling of low carbon options for the transport sector"</t>
+  </si>
+  <si>
+    <t>https://www.mctic.gov.br/mctic/export/sites/institucional/ciencia/SEPED/clima/arquivos/projeto_opcoes_mitigacao/publicacoes/Setor-Transportes.pdf</t>
+  </si>
+  <si>
+    <t>Table 133</t>
+  </si>
+  <si>
+    <t>Brazilian Ministry of Economy</t>
+  </si>
+  <si>
+    <t>Energy Efficiency of Inovar-Auto Program</t>
+  </si>
+  <si>
+    <t>This rate is from Germany. (data from US EPS)</t>
+  </si>
+  <si>
+    <t>(data from US EPS)</t>
+  </si>
+  <si>
+    <t>Units Conversion</t>
   </si>
   <si>
     <t>2000$</t>
   </si>
   <si>
     <t>perc increase in fuel econ / 2000$</t>
-  </si>
-  <si>
-    <t>perc increase in fuel econ / 2012$</t>
-  </si>
-  <si>
-    <t>Since the feebate is natively expressed in unusual units (dollars per (hundredth gallon per mile)), we</t>
-  </si>
-  <si>
-    <t>cause the lever in the EPS to represent the fraction of the best practice feebate rate, to improve</t>
-  </si>
-  <si>
-    <t>model usability for users.</t>
-  </si>
-  <si>
-    <t>Currency Year</t>
-  </si>
-  <si>
-    <t>Best Practice Feebate Rate</t>
-  </si>
-  <si>
-    <t>2012$ / (hundredth gal/mile)</t>
-  </si>
-  <si>
-    <t>Feebate at Full Policy Implementation</t>
-  </si>
-  <si>
-    <t>perc increase in fuel econ at full policy implementation</t>
-  </si>
-  <si>
-    <t>Effect of Feebate on Fuel Economy</t>
-  </si>
-  <si>
-    <t>Best Practices for Feebate Program Design and Implementation</t>
-  </si>
-  <si>
-    <t>http://www.theicct.org/sites/default/files/publications/ICCT_feebates_may2010.pdf</t>
-  </si>
-  <si>
-    <t>Table 2</t>
-  </si>
-  <si>
-    <t>John German and Dan Meszler, ICCT</t>
-  </si>
-  <si>
-    <t>This rate is from Germany.</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Effect of Feebate (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +461,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="30"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -209,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -253,8 +566,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF0096D7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF0096D7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
@@ -273,22 +661,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFont="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -296,22 +692,73 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="5"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
-    <cellStyle name="Header: bottom row" xfId="4"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="16">
+    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="11" xr:uid="{0D73184A-6B29-4A34-B399-F6AF905E54AC}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="13" xr:uid="{F9FE0F77-2DE8-437C-A779-B33E98F2BEE7}"/>
+    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Footnotes: top row 2" xfId="9" xr:uid="{B3D94788-7BF8-4E01-B881-8B5B1E3B48FC}"/>
+    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="12" xr:uid="{441A48DE-D9FD-47CC-819B-0B86FBC222B0}"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6"/>
-    <cellStyle name="Table title" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="8" xr:uid="{23E9F3FA-DE25-494D-86C1-C098B2694736}"/>
+    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Parent row 2" xfId="10" xr:uid="{5FC0329B-B657-49FF-ABFD-4F51AEE4E1B4}"/>
+    <cellStyle name="Table title" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Table title 2" xfId="14" xr:uid="{7D846C8F-7199-4A52-865A-35FC6DA75830}"/>
+    <cellStyle name="Vírgula 2" xfId="15" xr:uid="{5E7880A8-D0A3-4531-9F95-DAAC47780C24}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -326,8 +773,74 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2F1A1F8-8DD1-4571-83E1-C26A6D1465B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="57150" y="2743200"/>
+          <a:ext cx="1847850" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -402,6 +915,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -437,6 +967,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -612,10 +1159,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -627,17 +1176,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>32</v>
+      <c r="B3" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
@@ -657,219 +1206,302 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="16" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+    </row>
+    <row r="11" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>2010</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="4" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="17">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="17"/>
+    </row>
+    <row r="27" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="17">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+    <row r="32" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="17"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
-        <v>1.335</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <f>'Data and calculation Brazil'!B53</f>
+        <v>0.98556385942470071</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B31" r:id="rId1" xr:uid="{2FA54C67-B4BF-469E-A1D5-C636D9D9D5B3}"/>
+    <hyperlink ref="B23" r:id="rId2" xr:uid="{7FCD26F0-A08B-4936-8AC2-298091EFAFF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC1AFDA-AE5C-471D-92BE-A49EC4ABDAC7}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.85546875" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="16"/>
+    <col min="3" max="3" width="53.85546875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" style="16" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="28">
+        <v>500</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="28">
+        <v>1</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="28">
+        <v>0.16</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3">
-        <v>500</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B6" s="16">
+        <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="16">
+        <v>2.3970037453183523E-4</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="16">
+        <v>2000</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0.47940074906367047</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <f>B4/B2</f>
-        <v>3.2000000000000003E-4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="8">
-        <f>B6/About!A26</f>
-        <v>2.3970037453183523E-4</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9">
-        <v>2000</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11">
-        <f>B7*B9</f>
-        <v>0.47940074906367047</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -878,14 +1510,621 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="50.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="22">
+        <f>A47</f>
+        <v>4333.0231089979516</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="14">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="23">
+        <v>0.1208</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="14">
+        <f>B4/B2</f>
+        <v>2.7878918935176423E-5</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="14">
+        <f>B5/B53</f>
+        <v>2.8287278057710106E-5</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="14">
+        <v>2000</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="14">
+        <f>B6*B7</f>
+        <v>5.6574556115420213E-2</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>16.64</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="9">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>16.55</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="9">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
+        <v>16.46</v>
+      </c>
+      <c r="B29" s="9">
+        <v>50</v>
+      </c>
+      <c r="C29" s="9">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="D29" s="20">
+        <f>-(B29/((1/C29)-(1/A29)))</f>
+        <v>17756.224999999991</v>
+      </c>
+      <c r="E29" s="20">
+        <f t="shared" ref="E29:E44" si="0">D29/$B$52*$B$51/$B$50/100</f>
+        <v>193.31210752588538</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>16.37</v>
+      </c>
+      <c r="B30" s="9">
+        <v>140</v>
+      </c>
+      <c r="C30" s="9">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="D30" s="20">
+        <f t="shared" ref="D30:D43" si="1">-(B30/((1/C30)-(1/A30)))</f>
+        <v>44445.469662921343</v>
+      </c>
+      <c r="E30" s="20">
+        <f t="shared" si="0"/>
+        <v>483.87804336322233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>16.28</v>
+      </c>
+      <c r="B31" s="9">
+        <v>410</v>
+      </c>
+      <c r="C31" s="9">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="D31" s="20">
+        <f t="shared" si="1"/>
+        <v>117558.21224489802</v>
+      </c>
+      <c r="E31" s="20">
+        <f t="shared" si="0"/>
+        <v>1279.8568257631671</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="B32" s="9">
+        <v>770</v>
+      </c>
+      <c r="C32" s="9">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="D32" s="20">
+        <f t="shared" si="1"/>
+        <v>201091.90467289722</v>
+      </c>
+      <c r="E32" s="20">
+        <f t="shared" si="0"/>
+        <v>2189.2885395804692</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9">
+        <v>16.11</v>
+      </c>
+      <c r="B33" s="9">
+        <v>1130</v>
+      </c>
+      <c r="C33" s="9">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="D33" s="20">
+        <f t="shared" si="1"/>
+        <v>273222.79826086905</v>
+      </c>
+      <c r="E33" s="20">
+        <f t="shared" si="0"/>
+        <v>2974.5779272299392</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="9">
+        <v>16.02</v>
+      </c>
+      <c r="B34" s="9">
+        <v>1490</v>
+      </c>
+      <c r="C34" s="9">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="D34" s="20">
+        <f t="shared" si="1"/>
+        <v>332252.21612903202</v>
+      </c>
+      <c r="E34" s="20">
+        <f t="shared" si="0"/>
+        <v>3617.2314852987711</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9">
+        <v>15.94</v>
+      </c>
+      <c r="B35" s="9">
+        <v>1850</v>
+      </c>
+      <c r="C35" s="9">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="D35" s="20">
+        <f t="shared" si="1"/>
+        <v>385591.01515151444</v>
+      </c>
+      <c r="E35" s="20">
+        <f t="shared" si="0"/>
+        <v>4197.9312484486363</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="9">
+        <v>15.85</v>
+      </c>
+      <c r="B36" s="9">
+        <v>2210</v>
+      </c>
+      <c r="C36" s="9">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="D36" s="20">
+        <f t="shared" si="1"/>
+        <v>428788.58865248231</v>
+      </c>
+      <c r="E36" s="20">
+        <f t="shared" si="0"/>
+        <v>4668.223440256098</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="9">
+        <v>15.77</v>
+      </c>
+      <c r="B37" s="9">
+        <v>2570</v>
+      </c>
+      <c r="C37" s="9">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="D37" s="20">
+        <f t="shared" si="1"/>
+        <v>469482.42550335475</v>
+      </c>
+      <c r="E37" s="20">
+        <f t="shared" si="0"/>
+        <v>5111.257439034368</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9">
+        <v>15.69</v>
+      </c>
+      <c r="B38" s="9">
+        <v>2930</v>
+      </c>
+      <c r="C38" s="9">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="D38" s="20">
+        <f t="shared" si="1"/>
+        <v>505395.88662420324</v>
+      </c>
+      <c r="E38" s="20">
+        <f t="shared" si="0"/>
+        <v>5502.2474640999535</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>15.61</v>
+      </c>
+      <c r="B39" s="9">
+        <v>3290</v>
+      </c>
+      <c r="C39" s="9">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="D39" s="20">
+        <f t="shared" si="1"/>
+        <v>537224.2993939392</v>
+      </c>
+      <c r="E39" s="20">
+        <f t="shared" si="0"/>
+        <v>5848.7635479928667</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9">
+        <v>15.53</v>
+      </c>
+      <c r="B40" s="9">
+        <v>3650</v>
+      </c>
+      <c r="C40" s="9">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="D40" s="20">
+        <f t="shared" si="1"/>
+        <v>565534.37572254264</v>
+      </c>
+      <c r="E40" s="20">
+        <f t="shared" si="0"/>
+        <v>6156.975486020292</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9">
+        <v>15.45</v>
+      </c>
+      <c r="B41" s="9">
+        <v>4010</v>
+      </c>
+      <c r="C41" s="9">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="D41" s="20">
+        <f t="shared" si="1"/>
+        <v>590792.63535911497</v>
+      </c>
+      <c r="E41" s="20">
+        <f t="shared" si="0"/>
+        <v>6431.9622809489329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
+        <v>15.37</v>
+      </c>
+      <c r="B42" s="9">
+        <v>4370</v>
+      </c>
+      <c r="C42" s="9">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="D42" s="20">
+        <f t="shared" si="1"/>
+        <v>613386.61058200954</v>
+      </c>
+      <c r="E42" s="20">
+        <f t="shared" si="0"/>
+        <v>6677.942998569114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9">
+        <v>15.29</v>
+      </c>
+      <c r="B43" s="9">
+        <v>4730</v>
+      </c>
+      <c r="C43" s="9">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="D43" s="20">
+        <f t="shared" si="1"/>
+        <v>633640.88426395913</v>
+      </c>
+      <c r="E43" s="20">
+        <f t="shared" si="0"/>
+        <v>6898.4513741874516</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9">
+        <v>15.21</v>
+      </c>
+      <c r="B44" s="9">
+        <v>5090</v>
+      </c>
+      <c r="C44" s="9">
+        <v>17.260000000000002</v>
+      </c>
+      <c r="D44" s="20">
+        <f>-(B44/((1/C44)-(1/A44)))</f>
+        <v>651829.37268292671</v>
+      </c>
+      <c r="E44" s="20">
+        <f t="shared" si="0"/>
+        <v>7096.4695356480552</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="24"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="21">
+        <f>AVERAGE(E29:E44)</f>
+        <v>4333.0231089979516</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="19"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="18">
+        <v>0.26417200000000002</v>
+      </c>
+      <c r="C50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="18">
+        <v>0.62137100000000001</v>
+      </c>
+      <c r="C51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="18">
+        <v>2.1605075098814202</v>
+      </c>
+      <c r="C52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="18">
+        <v>0.98556385942470071</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,17 +2134,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
-        <v>39</v>
+      <c r="B1" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <f>Data!B11</f>
-        <v>0.47940074906367047</v>
+        <f>'Data and calculation Brazil'!B8</f>
+        <v>5.6574556115420213E-2</v>
       </c>
     </row>
   </sheetData>
